--- a/6_conferences_notebooks/Hebrew_Bible_Septuagint_Project/data/greek_verbs/εἰμί.xlsx
+++ b/6_conferences_notebooks/Hebrew_Bible_Septuagint_Project/data/greek_verbs/εἰμί.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,51 +493,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>42158_lxx</t>
+          <t>40860_lxx</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>42158_mt</t>
+          <t>40860_mt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ἐν τοῖς δακτυλίοις τῆς κιβωτοῦ ἔσονται οἱ ἀναφορεῖς ἀκίνητοι.</t>
+          <t>ἐὰν δὲ ὁ κύριος ᾖ μετ’ αὐτοῦ, οὐκ ἀποτίσει · ἐὰν δὲ μισθωτὸς ᾖ, ἔσται αὐτῷ ἀντὶ τοῦ μισθοῦ αὐτοῦ.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
+          <t>(22, 14)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&gt;M B&lt;LJW &lt;MW L&gt; JCLM &gt;M FKJR HW&gt; B&gt; B FKRW</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>B FKRW</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>prep</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>inanim</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>42158_lxx</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>42158_mt</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ἐν τοῖς δακτυλίοις τῆς κιβωτοῦ ἔσονται οἱ ἀναφορεῖς ἀκίνητοι.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>(25, 14)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>ἐν</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>W HB&gt;T &gt;T H BDJM B VB&lt;T &lt;L YL&lt;T H &gt;RN L F&gt;T &gt;T H &gt;RN BHM</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>B VB&lt;T &lt;L YL&lt;T H &gt;RN</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>prep + prep</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>B&lt;L</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>inanim</t>
         </is>
